--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T16:31:57+00:00</t>
+    <t>2023-03-19T13:34:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:34:55+00:00</t>
+    <t>2023-03-19T13:45:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:45:53+00:00</t>
+    <t>2023-03-19T13:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:54:37+00:00</t>
+    <t>2023-03-19T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T13:59:04+00:00</t>
+    <t>2023-03-19T14:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:12:08+00:00</t>
+    <t>2023-03-19T14:24:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:24:01+00:00</t>
+    <t>2023-03-19T14:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:30:17+00:00</t>
+    <t>2023-03-19T14:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T14:44:32+00:00</t>
+    <t>2023-03-19T15:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:09:40+00:00</t>
+    <t>2023-03-19T15:54:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T15:54:08+00:00</t>
+    <t>2023-03-19T16:05:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-19T16:05:57+00:00</t>
+    <t>2023-03-20T11:16:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T11:16:14+00:00</t>
+    <t>2023-03-21T09:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T09:14:35+00:00</t>
+    <t>2023-03-21T16:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-21T16:58:14+00:00</t>
+    <t>2023-03-22T10:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-22T10:52:43+00:00</t>
+    <t>2023-03-23T14:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:47:57+00:00</t>
+    <t>2023-03-23T15:06:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:06:11+00:00</t>
+    <t>2023-03-23T15:06:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:06:38+00:00</t>
+    <t>2023-03-23T16:08:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T16:08:18+00:00</t>
+    <t>2023-03-24T13:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-24T13:28:56+00:00</t>
+    <t>2023-03-25T16:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T15:54:52+00:00</t>
+    <t>2023-07-11T09:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:19+00:00</t>
+    <t>2023-07-11T09:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T09:02:50+00:00</t>
+    <t>2023-07-21T12:08:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -30095,7 +30095,7 @@
         <v>36</v>
       </c>
       <c r="G248" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H248" t="s" s="2">
         <v>35</v>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T12:08:41+00:00</t>
+    <t>2023-07-21T15:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:47:29+00:00</t>
+    <t>2023-07-26T15:16:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T15:16:57+00:00</t>
+    <t>2023-07-26T17:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T17:28:55+00:00</t>
+    <t>2023-08-04T14:27:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:27:37+00:00</t>
+    <t>2023-08-04T14:41:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T14:41:08+00:00</t>
+    <t>2023-08-05T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-05T17:33:43+00:00</t>
+    <t>2023-08-06T12:10:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:10:37+00:00</t>
+    <t>2023-08-06T12:23:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:23:25+00:00</t>
+    <t>2023-08-06T12:41:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T12:41:23+00:00</t>
+    <t>2023-08-06T13:08:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-06T13:08:17+00:00</t>
+    <t>2023-08-21T11:27:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T11:27:47+00:00</t>
+    <t>2023-08-21T12:27:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T16:46:01+00:00</t>
+    <t>2023-08-31T15:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:17:32+00:00</t>
+    <t>2023-08-31T15:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:22:04+00:00</t>
+    <t>2023-08-31T15:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:37:29+00:00</t>
+    <t>2023-09-01T08:10:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:10:44+00:00</t>
+    <t>2023-10-10T15:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T15:23:36+00:00</t>
+    <t>2023-10-11T18:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.1.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T18:40:37+00:00</t>
+    <t>2023-10-12T08:02:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T08:02:08+00:00</t>
+    <t>2023-10-12T08:32:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T08:32:10+00:00</t>
+    <t>2023-10-12T11:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T11:55:23+00:00</t>
+    <t>2023-10-12T12:01:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T12:01:54+00:00</t>
+    <t>2023-10-20T13:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T13:13:17+00:00</t>
+    <t>2023-11-02T15:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/ig/main/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T15:20:04+00:00</t>
+    <t>2023-12-08T10:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
